--- a/Test/Lawnmower/T2/Sensors_data_1000017.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000017.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.976915715705619</v>
+        <v>0.9363051798765485</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0009663235942654213</v>
+        <v>0.002960896764771887</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01806227571679397</v>
+        <v>0.02187587452005124</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7469351484803632</v>
+        <v>0.7703859413542643</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007507968783298096</v>
+        <v>0.007483910739033537</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09124712739218838</v>
+        <v>0.04519812607907392</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4804442564059351</v>
+        <v>0.419446123333911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03786066373327289</v>
+        <v>0.02465772654281968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4278742525532054</v>
+        <v>0.3544613432900933</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,93 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9480511755955603</v>
+        <v>0.9334491293280611</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002727705939031631</v>
+        <v>0.004183353998079056</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07609689872812581</v>
+        <v>0.001053738353174072</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9735561006940334</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0008174040092495456</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1840417931181881</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9935931070371178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0004310287801526958</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.06287731976384597</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7891969938370553</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.009137815539322745</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.001100631816506437</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
